--- a/data_and_analysis/Pcc.xlsx
+++ b/data_and_analysis/Pcc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DarkMatter_Jr\data_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224931A4-82AA-4B5F-92FF-C05D9DF590AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCAC5D4-65E6-4673-9011-87495BA44522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E580757-3AB6-4B3E-A09A-9DA5BF4EE5B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0E580757-3AB6-4B3E-A09A-9DA5BF4EE5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Apogee" sheetId="1" r:id="rId1"/>
     <sheet name="Thrust" sheetId="2" r:id="rId2"/>
+    <sheet name="With AR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Pcc(PSI)</t>
   </si>
@@ -48,6 +49,12 @@
   </si>
   <si>
     <t>Pcc (psi)</t>
+  </si>
+  <si>
+    <t>Pcc</t>
+  </si>
+  <si>
+    <t>Isp (s)</t>
   </si>
 </sst>
 </file>
@@ -5186,6 +5193,409 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'With AR'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isp (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'With AR'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'With AR'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>234.0719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.58709999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.00229999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251.5591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255.11670000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>258.11279999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.57479999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264.38580000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265.96940000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267.41269999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>268.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>269.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270.9074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>271.85840000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>272.75209999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>273.59429999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>275.0985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2074-4347-984E-B5638CFBBB93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056451183"/>
+        <c:axId val="1056453679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056451183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056453679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056453679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056451183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5227,6 +5637,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6298,6 +6748,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6360,6 +7326,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EF155C-7513-9CC1-98D0-C66E3FACBAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FBD69E-15D9-0E2D-4ED5-A53BF9B87DBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6679,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110578B6-3EC0-4328-8D1F-84C05660A2BA}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12721,4 +13728,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB4DDBB-BABC-486C-81FB-D57D76A148E6}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>234.0719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>240.58709999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>247.00229999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>251.5591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>255.11670000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>258.11279999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <v>260.57479999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>450</v>
+      </c>
+      <c r="B9">
+        <v>262.63600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>264.38580000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>550</v>
+      </c>
+      <c r="B11">
+        <v>265.96940000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>600</v>
+      </c>
+      <c r="B12">
+        <v>267.41269999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>650</v>
+      </c>
+      <c r="B13">
+        <v>268.66699999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>700</v>
+      </c>
+      <c r="B14">
+        <v>269.82799999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>750</v>
+      </c>
+      <c r="B15">
+        <v>270.9074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>800</v>
+      </c>
+      <c r="B16">
+        <v>271.85840000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>850</v>
+      </c>
+      <c r="B17">
+        <v>272.75209999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>900</v>
+      </c>
+      <c r="B18">
+        <v>273.59429999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>950</v>
+      </c>
+      <c r="B19">
+        <v>274.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>275.0985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>